--- a/Unit Tests.xlsx
+++ b/Unit Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peterreeves\Documents\GitHub\CSVExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF664407-3399-4EA5-B8D5-3A59D49D868B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269E1396-E567-46CC-90CC-E2955214F3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Sucessfully connect to a FTP Server, running on local host</t>
   </si>
   <si>
-    <t>400 response received</t>
-  </si>
-  <si>
     <t>Handle failed connection</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Comes back negative</t>
+  </si>
+  <si>
+    <t>200 response received</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,106 +473,106 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
